--- a/REGULAR/OJT/NEW DONE/DIGO, MANUEL C..xlsx
+++ b/REGULAR/OJT/NEW DONE/DIGO, MANUEL C..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khym Espino\OneDrive\Documents\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,11 +319,32 @@
   <si>
     <t>09/5-10/4/2019</t>
   </si>
+  <si>
+    <t>TOPS-CSU</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(19-0-0)</t>
+  </si>
+  <si>
+    <t>12/12/2022-1/6/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -702,6 +723,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,9 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,7 +1210,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1253,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1317,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1377,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1443,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1506,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1604,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1663,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1728,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1771,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1846,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2032,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2098,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2156,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2222,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2278,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2353,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2396,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2462,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2518,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2616,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2679,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2745,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K366" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K394" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3102,12 +3123,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K366"/>
+  <dimension ref="A2:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" activePane="bottomLeft"/>
-      <selection activeCell="K9" sqref="K9:L27"/>
-      <selection pane="bottomLeft" activeCell="K338" sqref="K338"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A371" activePane="bottomLeft"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,62 +3150,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3210,18 +3233,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3268,7 +3291,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>220.809</v>
+        <v>240.559</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3278,7 +3301,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>272.91699999999997</v>
+        <v>321.66699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7526,7 +7549,7 @@
       <c r="K210" s="20"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="63">
+      <c r="A211" s="51">
         <f>EDATE(A209,1)</f>
         <v>40179</v>
       </c>
@@ -10063,7 +10086,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <f t="shared" ref="A331:A341" si="24">EDATE(A330,1)</f>
+        <f t="shared" ref="A331:A338" si="24">EDATE(A330,1)</f>
         <v>43525</v>
       </c>
       <c r="B331" s="20"/>
@@ -10274,7 +10297,6 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <f>EDATE(A338,1)</f>
         <v>43770</v>
       </c>
       <c r="B340" s="20"/>
@@ -10295,7 +10317,6 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <f t="shared" si="24"/>
         <v>43800</v>
       </c>
       <c r="B341" s="20"/>
@@ -10315,329 +10336,1050 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="40"/>
+      <c r="A342" s="48" t="s">
+        <v>93</v>
+      </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13"/>
+      <c r="G342" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="40"/>
+      <c r="A343" s="40">
+        <v>43831</v>
+      </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13"/>
+      <c r="G343" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="40"/>
+      <c r="A344" s="40">
+        <v>43862</v>
+      </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13"/>
+      <c r="G344" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="40"/>
+      <c r="A345" s="40">
+        <v>43891</v>
+      </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13"/>
+      <c r="G345" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="40"/>
+      <c r="A346" s="40">
+        <v>43922</v>
+      </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13"/>
+      <c r="G346" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="40"/>
+      <c r="A347" s="40">
+        <v>43952</v>
+      </c>
       <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D347" s="39"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13"/>
+      <c r="G347" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="40"/>
+      <c r="A348" s="40">
+        <v>43983</v>
+      </c>
       <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="39"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13"/>
+      <c r="G348" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="40"/>
+      <c r="A349" s="40">
+        <v>44013</v>
+      </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13"/>
+      <c r="G349" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="40"/>
+      <c r="A350" s="40">
+        <v>44044</v>
+      </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13"/>
+      <c r="G350" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="40"/>
+      <c r="A351" s="40">
+        <v>44075</v>
+      </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13"/>
+      <c r="G351" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="40"/>
+      <c r="A352" s="40">
+        <v>44105</v>
+      </c>
       <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13"/>
+      <c r="G352" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="40"/>
+      <c r="A353" s="40">
+        <v>44136</v>
+      </c>
       <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13"/>
+      <c r="G353" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="40"/>
-      <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="39"/>
+      <c r="A354" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39">
+        <v>5</v>
+      </c>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13"/>
+      <c r="G354" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40"/>
+      <c r="A355" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13"/>
+      <c r="G355" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="40"/>
+      <c r="A356" s="40">
+        <v>44197</v>
+      </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13"/>
+      <c r="G356" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="40"/>
+      <c r="A357" s="40">
+        <v>44228</v>
+      </c>
       <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13"/>
+      <c r="G357" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40"/>
+      <c r="A358" s="40">
+        <v>44256</v>
+      </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13"/>
+      <c r="G358" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40"/>
+      <c r="A359" s="40">
+        <v>44287</v>
+      </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13"/>
+      <c r="G359" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40"/>
+      <c r="A360" s="40">
+        <v>44317</v>
+      </c>
       <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13"/>
+      <c r="G360" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40"/>
+      <c r="A361" s="40">
+        <v>44348</v>
+      </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="39"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13"/>
+      <c r="G361" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="40"/>
+      <c r="A362" s="40">
+        <v>44378</v>
+      </c>
       <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13"/>
+      <c r="G362" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>44409</v>
+      </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13"/>
+      <c r="G363" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="40"/>
+      <c r="A364" s="40">
+        <v>44440</v>
+      </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13"/>
+      <c r="G364" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="40"/>
+      <c r="A365" s="40">
+        <v>44470</v>
+      </c>
       <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13"/>
+      <c r="G365" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="41"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="42"/>
-      <c r="D366" s="43"/>
-      <c r="E366" s="50"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="42"/>
-      <c r="H366" s="43"/>
-      <c r="I366" s="50"/>
-      <c r="J366" s="12"/>
-      <c r="K366" s="15"/>
+      <c r="A366" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D367" s="39">
+        <v>5</v>
+      </c>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B368" s="15"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="43"/>
+      <c r="E368" s="50"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="43"/>
+      <c r="I368" s="50"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="15"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B369" s="15"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D369" s="43"/>
+      <c r="E369" s="50"/>
+      <c r="F369" s="15"/>
+      <c r="G369" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H369" s="43"/>
+      <c r="I369" s="50"/>
+      <c r="J369" s="12"/>
+      <c r="K369" s="15"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D373" s="39"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H373" s="39"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D374" s="39"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H374" s="39"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D376" s="39"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H376" s="39"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D377" s="39"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H377" s="39"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D378" s="39"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H378" s="39"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D380" s="39">
+        <v>19</v>
+      </c>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="39"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="39"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="39"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="39"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="39"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="39"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10703,17 +11445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -10798,12 +11540,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
